--- a/rad_pipeline/week_five_rpe_layout.xlsx
+++ b/rad_pipeline/week_five_rpe_layout.xlsx
@@ -68,16 +68,16 @@
     <t>r08c03</t>
   </si>
   <si>
-    <t>r07c09</t>
+    <t>r07c10</t>
   </si>
   <si>
-    <t>r07c11</t>
+    <t>r07c12</t>
   </si>
   <si>
-    <t>r08c10</t>
+    <t>r08c09</t>
   </si>
   <si>
-    <t>r08c12</t>
+    <t>r08c11</t>
   </si>
   <si>
     <t>r01c01</t>
@@ -1002,7 +1002,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
@@ -1034,7 +1034,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
@@ -1066,7 +1066,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
@@ -1098,7 +1098,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
